--- a/Mechanical/Head Assembly/Head Assembly Parts List.xlsx
+++ b/Mechanical/Head Assembly/Head Assembly Parts List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open_source_rover\Documentation\Mechanical Assembly\Head Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\osr\Mechanical\Head Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Makexyz</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Total with 3D printer (not counting material)</t>
+  </si>
+  <si>
+    <t>*These files can be found in the 3D printed parts folder</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -451,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,25 +742,25 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.73046875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="36.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -789,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
@@ -833,7 +839,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -870,7 +876,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -907,7 +913,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -948,7 +954,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
@@ -985,7 +991,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1067,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="J11" s="33">
         <f>SUM(J2:J8)</f>
         <v>120.29</v>
@@ -1070,7 +1081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="J12" s="35">
         <f>SUM(J3:J8)</f>
         <v>44.489999999999995</v>

--- a/Mechanical/Head Assembly/Head Assembly Parts List.xlsx
+++ b/Mechanical/Head Assembly/Head Assembly Parts List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Makexyz</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>*These files can be found in the 3D printed parts folder</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
+  </si>
+  <si>
+    <t>Author: Eric Junkins, Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
 </sst>
 </file>
@@ -187,6 +196,7 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -214,6 +224,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -257,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -347,12 +358,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,11 +481,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -739,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -760,347 +810,396 @@
     <col min="11" max="11" width="46.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="36.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="36.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I5" s="20">
         <f>38.9+36.9</f>
         <v>75.8</v>
       </c>
-      <c r="J2" s="20">
-        <f t="shared" ref="J2:J8" si="0">B2/D2*I2</f>
+      <c r="J5" s="20">
+        <f t="shared" ref="J5:J11" si="0">B5/D5*I5</f>
         <v>75.8</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G6" s="10">
         <v>545512</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I6" s="12">
         <v>9.99</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I7" s="12">
         <v>4.92</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>4.92</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B8" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C8" s="8">
         <f>16+8+8+32</f>
         <v>64</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D8" s="7">
         <v>100</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I8" s="15">
         <v>3.72</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>3.72</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
+      <c r="N8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B9" s="8">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C9" s="8">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I9" s="15">
         <v>2.87</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>2.87</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B10" s="23">
         <v>100</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C10" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D10" s="24">
         <v>100</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I10" s="26">
         <v>2.79</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J10" s="26">
         <f t="shared" si="0"/>
         <v>2.79</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
+      <c r="N10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B11" s="29">
         <v>3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C11" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D11" s="29">
         <v>3</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I11" s="31">
         <v>20.2</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J11" s="31">
         <f t="shared" si="0"/>
         <v>20.2</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K11" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="38" t="s">
+    <row r="13" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J11" s="33">
-        <f>SUM(J2:J8)</f>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="J14" s="33">
+        <f>SUM(J5:J11)</f>
         <v>120.29</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K14" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="J12" s="35">
-        <f>SUM(J3:J8)</f>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="J15" s="35">
+        <f>SUM(J6:J11)</f>
         <v>44.489999999999995</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K15" s="36" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M2:Q2"/>
+  <mergeCells count="2">
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" location="48925k93/=18nja2z"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K5" r:id="rId3" location="92949A146"/>
-    <hyperlink ref="K6" r:id="rId4" location="92949a106/=18njrx6"/>
-    <hyperlink ref="K7" r:id="rId5" location="90631A005"/>
-    <hyperlink ref="K8" r:id="rId6"/>
+    <hyperlink ref="K7" r:id="rId1" location="48925k93/=18nja2z"/>
+    <hyperlink ref="K6" r:id="rId2"/>
+    <hyperlink ref="K8" r:id="rId3" location="92949A146"/>
+    <hyperlink ref="K9" r:id="rId4" location="92949a106/=18njrx6"/>
+    <hyperlink ref="K10" r:id="rId5" location="90631A005"/>
+    <hyperlink ref="K11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
